--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,9 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -52,10 +49,7 @@
     <t>fraud</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
@@ -64,112 +58,115 @@
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -527,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,10 +532,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,13 +593,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,19 +611,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -638,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -646,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.88</v>
+        <v>0.636986301369863</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -664,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -696,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7727272727272727</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C5">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,19 +711,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -738,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7647058823529411</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -764,31 +761,31 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>56</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="L6">
+        <v>42</v>
+      </c>
+      <c r="M6">
+        <v>42</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>4</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6">
-        <v>0.925</v>
-      </c>
-      <c r="L6">
-        <v>37</v>
-      </c>
-      <c r="M6">
-        <v>37</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6666666666666666</v>
+        <v>0.2112403100775194</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>407</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="L7">
         <v>23</v>
       </c>
-      <c r="K7">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="L7">
-        <v>44</v>
-      </c>
       <c r="M7">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L8">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="M8">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,45 +885,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.3390557939914163</v>
-      </c>
-      <c r="C9">
-        <v>79</v>
-      </c>
-      <c r="D9">
-        <v>79</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>154</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K9">
-        <v>0.8431372549019608</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L9">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -938,39 +911,15 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="C10">
-        <v>19</v>
-      </c>
-      <c r="D10">
-        <v>19</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>67</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>0.8392857142857143</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
         <v>47</v>
@@ -988,45 +937,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.175</v>
-      </c>
-      <c r="C11">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>66</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.8148148148148148</v>
+        <v>0.796875</v>
       </c>
       <c r="L11">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="M11">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1038,45 +963,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1454545454545454</v>
-      </c>
-      <c r="C12">
-        <v>16</v>
-      </c>
-      <c r="D12">
-        <v>16</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>94</v>
-      </c>
       <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L12">
         <v>28</v>
       </c>
-      <c r="K12">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L12">
-        <v>22</v>
-      </c>
       <c r="M12">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1088,21 +989,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7758620689655172</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1114,21 +1015,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K14">
         <v>0.75</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1140,21 +1041,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.75</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L15">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1166,21 +1067,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7241379310344828</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1192,21 +1093,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.717948717948718</v>
+        <v>0.6875</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1218,21 +1119,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L18">
         <v>34</v>
       </c>
-      <c r="K18">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L18">
-        <v>12</v>
-      </c>
       <c r="M18">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1244,21 +1145,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.696969696969697</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L19">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1270,21 +1171,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.684931506849315</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M20">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1296,21 +1197,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="L21">
         <v>37</v>
       </c>
-      <c r="K21">
-        <v>0.6538461538461539</v>
-      </c>
-      <c r="L21">
-        <v>17</v>
-      </c>
       <c r="M21">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1322,21 +1223,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1348,21 +1249,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.631578947368421</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L23">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M23">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1374,21 +1275,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1400,21 +1301,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.596244131455399</v>
+        <v>0.5378590078328982</v>
       </c>
       <c r="L25">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="M25">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1426,21 +1327,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>86</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5428571428571428</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="M26">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1452,21 +1353,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5271317829457365</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L27">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="M27">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1478,21 +1379,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5138888888888888</v>
+        <v>0.4440677966101695</v>
       </c>
       <c r="L28">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="M28">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1504,21 +1405,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>70</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.4666666666666667</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L29">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1530,21 +1431,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.4642857142857143</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L30">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1556,21 +1457,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.4456521739130435</v>
+        <v>0.3682008368200837</v>
       </c>
       <c r="L31">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="M31">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1582,21 +1483,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L32">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1608,21 +1509,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.03051643192488263</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L33">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M33">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1634,21 +1535,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>413</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.02926829268292683</v>
+        <v>0.296875</v>
       </c>
       <c r="L34">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1660,33 +1561,111 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>398</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.01161751563896336</v>
+        <v>0.03919372900335946</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="N35">
-        <v>0.76</v>
+        <v>0.97</v>
       </c>
       <c r="O35">
-        <v>0.24</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>1106</v>
+        <v>858</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36">
+        <v>0.02552719200887902</v>
+      </c>
+      <c r="L36">
+        <v>23</v>
+      </c>
+      <c r="M36">
+        <v>23</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37">
+        <v>0.01260504201680672</v>
+      </c>
+      <c r="L37">
+        <v>27</v>
+      </c>
+      <c r="M37">
+        <v>28</v>
+      </c>
+      <c r="N37">
+        <v>0.96</v>
+      </c>
+      <c r="O37">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38">
+        <v>0.008376288659793814</v>
+      </c>
+      <c r="L38">
+        <v>26</v>
+      </c>
+      <c r="M38">
+        <v>29</v>
+      </c>
+      <c r="N38">
+        <v>0.9</v>
+      </c>
+      <c r="O38">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>3078</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,118 +43,112 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
+    <t>low</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
-    <t>important</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>sure</t>
   </si>
   <si>
     <t>store</t>
@@ -524,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -593,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -611,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -643,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.636986301369863</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C4">
-        <v>186</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>186</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -661,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -685,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6111111111111112</v>
+        <v>0.636986301369863</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5">
         <v>0.9322033898305084</v>
@@ -743,28 +737,28 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2533333333333334</v>
+        <v>0.28</v>
       </c>
       <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>54</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D6">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>56</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="K6">
         <v>0.9130434782608695</v>
@@ -793,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2112403100775194</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C7">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="D7">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>407</v>
+        <v>150</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8518518518518519</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -835,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -843,13 +837,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1851851851851852</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="C8">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -861,45 +855,69 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>154</v>
+        <v>420</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8">
+        <v>0.78125</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8">
+        <v>100</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.1342281879194631</v>
+      </c>
+      <c r="C9">
         <v>20</v>
       </c>
-      <c r="K8">
-        <v>0.8482142857142857</v>
-      </c>
-      <c r="L8">
-        <v>95</v>
-      </c>
-      <c r="M8">
-        <v>95</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>129</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9">
-        <v>0.8170731707317073</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L9">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="M9">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -911,21 +929,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -937,21 +955,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>0.796875</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="L11">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="M11">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -963,21 +981,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -989,21 +1007,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7605633802816901</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L13">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="M13">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1015,21 +1033,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L14">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M14">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1041,21 +1059,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7333333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="L15">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="M15">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1067,21 +1085,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.7169811320754716</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L16">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M16">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1093,21 +1111,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.6875</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L17">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1119,21 +1137,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1145,21 +1163,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6041666666666666</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1171,21 +1189,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.5957446808510638</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L20">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1197,21 +1215,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.5873015873015873</v>
+        <v>0.58</v>
       </c>
       <c r="L21">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1223,21 +1241,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.5600000000000001</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1249,21 +1267,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.5588235294117647</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1275,21 +1293,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5531914893617021</v>
+        <v>0.5169712793733682</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>198</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>198</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1301,21 +1319,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>21</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5378590078328982</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L25">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="M25">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1327,21 +1345,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>177</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.4705882352941176</v>
+        <v>0.4529411764705882</v>
       </c>
       <c r="L26">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M26">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1353,21 +1371,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.4606741573033708</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L27">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="M27">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1379,21 +1397,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>48</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.4440677966101695</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L28">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1405,21 +1423,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.4222222222222222</v>
+        <v>0.3807531380753138</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1431,21 +1449,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>26</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.3972602739726027</v>
+        <v>0.3230769230769231</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1462,16 +1480,16 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.3682008368200837</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L31">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="M31">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1483,21 +1501,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>151</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.3333333333333333</v>
+        <v>0.03914988814317674</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1509,21 +1527,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>52</v>
+        <v>859</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.3076923076923077</v>
+        <v>0.02108768035516093</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1535,136 +1553,58 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>45</v>
+        <v>882</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.296875</v>
+        <v>0.01214385801027557</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>45</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.03919372900335946</v>
+        <v>0.009333762471837787</v>
       </c>
       <c r="L35">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N35">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K36">
-        <v>0.02552719200887902</v>
-      </c>
-      <c r="L36">
-        <v>23</v>
-      </c>
-      <c r="M36">
-        <v>23</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K37">
-        <v>0.01260504201680672</v>
-      </c>
-      <c r="L37">
-        <v>27</v>
-      </c>
-      <c r="M37">
-        <v>28</v>
-      </c>
-      <c r="N37">
-        <v>0.96</v>
-      </c>
-      <c r="O37">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38">
-        <v>0.008376288659793814</v>
-      </c>
-      <c r="L38">
-        <v>26</v>
-      </c>
-      <c r="M38">
-        <v>29</v>
-      </c>
-      <c r="N38">
-        <v>0.9</v>
-      </c>
-      <c r="O38">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P38" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q38">
         <v>3078</v>
       </c>
     </row>
